--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R324495255e694ca7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Re2ddf1f730ef44a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Re2ddf1f730ef44a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R588a5a4f64a9465c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R588a5a4f64a9465c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Reb0f56f6167d4932"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Reb0f56f6167d4932"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R9fc9e92954ba4882"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R9fc9e92954ba4882"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1e803ce518454331"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1e803ce518454331"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Rf6fc7b2632ea4a59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Rf6fc7b2632ea4a59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R38f439f6b2a04645"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R38f439f6b2a04645"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1cd10999d2634274"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1cd10999d2634274"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1356465864eb4b49"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -24,13 +24,18 @@
     <x:numFmt numFmtId="171" formatCode="0.000"/>
     <x:numFmt numFmtId="172" formatCode="0.0000"/>
   </x:numFmts>
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font/>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
@@ -64,24 +69,25 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="20"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Arial"/>
     </x:font>
     <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="20"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -104,7 +110,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="11">
+  <x:borders count="12">
     <x:border/>
     <x:border>
       <x:left/>
@@ -166,8 +172,14 @@
       <x:top/>
       <x:bottom/>
     </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+    </x:border>
   </x:borders>
-  <x:cellXfs count="11">
+  <x:cellXfs count="12">
     <x:xf fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <x:xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <x:xf fontId="2" fillId="0" borderId="2" applyFont="1" applyFill="0" applyBorder="1"/>
@@ -179,6 +191,7 @@
     <x:xf fontId="8" fillId="0" borderId="8" applyFont="1" applyFill="0" applyBorder="1"/>
     <x:xf fontId="9" fillId="0" borderId="9" applyFont="1" applyFill="0" applyBorder="1"/>
     <x:xf fontId="10" fillId="3" borderId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf fontId="11" fillId="0" borderId="11" applyFont="1" applyFill="0" applyBorder="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -225,7 +238,7 @@
       <x:c r="D2" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="str">
+      <x:c r="E2" s="3" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F2" s="2" t="n">
@@ -245,7 +258,7 @@
       <x:c r="D3" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E3" s="3" t="str">
+      <x:c r="E3" s="4" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F3" s="2" t="n">
@@ -265,7 +278,7 @@
       <x:c r="D4" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E4" s="4" t="str">
+      <x:c r="E4" s="5" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F4" s="2" t="n">
@@ -285,7 +298,7 @@
       <x:c r="D5" s="2" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="E5" s="5" t="str">
+      <x:c r="E5" s="6" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F5" s="2" t="n">
@@ -305,7 +318,7 @@
       <x:c r="D6" s="2" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="E6" s="6" t="str">
+      <x:c r="E6" s="7" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F6" s="2" t="n">
@@ -325,7 +338,7 @@
       <x:c r="D7" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E7" s="7" t="str">
+      <x:c r="E7" s="2" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F7" s="2" t="n">
@@ -365,7 +378,7 @@
       <x:c r="D9" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="str">
+      <x:c r="E9" s="3" t="str">
         <x:v>Short</x:v>
       </x:c>
       <x:c r="F9" s="2" t="n">
@@ -385,7 +398,7 @@
       <x:c r="D10" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="str">
+      <x:c r="E10" s="3" t="str">
         <x:v>This is a much longer text string</x:v>
       </x:c>
       <x:c r="F10" s="2" t="n">
@@ -418,7 +431,7 @@
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="4" t="str">
+      <x:c r="A14" s="11" t="str">
         <x:v>Text to Measure:</x:v>
       </x:c>
       <x:c r="B14" s="2" t="str">
@@ -426,7 +439,7 @@
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="4" t="str">
+      <x:c r="A15" s="11" t="str">
         <x:v>Estimated Width:</x:v>
       </x:c>
       <x:c r="B15" s="2" t="n">
@@ -434,7 +447,7 @@
       </x:c>
     </x:row>
     <x:row r="16">
-      <x:c r="A16" s="4" t="str">
+      <x:c r="A16" s="11" t="str">
         <x:v>Applied Width:</x:v>
       </x:c>
       <x:c r="B16" s="2" t="str">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R1356465864eb4b49"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R980758f796f44680"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -24,18 +24,13 @@
     <x:numFmt numFmtId="171" formatCode="0.000"/>
     <x:numFmt numFmtId="172" formatCode="0.0000"/>
   </x:numFmts>
-  <x:fonts count="12">
+  <x:fonts count="11">
     <x:font/>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
@@ -69,6 +64,11 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
@@ -81,13 +81,7 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -110,7 +104,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="12">
+  <x:borders count="11">
     <x:border/>
     <x:border>
       <x:left/>
@@ -172,14 +166,8 @@
       <x:top/>
       <x:bottom/>
     </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-    </x:border>
   </x:borders>
-  <x:cellXfs count="12">
+  <x:cellXfs count="11">
     <x:xf fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <x:xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <x:xf fontId="2" fillId="0" borderId="2" applyFont="1" applyFill="0" applyBorder="1"/>
@@ -191,7 +179,6 @@
     <x:xf fontId="8" fillId="0" borderId="8" applyFont="1" applyFill="0" applyBorder="1"/>
     <x:xf fontId="9" fillId="0" borderId="9" applyFont="1" applyFill="0" applyBorder="1"/>
     <x:xf fontId="10" fillId="3" borderId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf fontId="11" fillId="0" borderId="11" applyFont="1" applyFill="0" applyBorder="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -238,7 +225,7 @@
       <x:c r="D2" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="str">
+      <x:c r="E2" s="2" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F2" s="2" t="n">
@@ -258,7 +245,7 @@
       <x:c r="D3" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E3" s="4" t="str">
+      <x:c r="E3" s="3" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F3" s="2" t="n">
@@ -278,7 +265,7 @@
       <x:c r="D4" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E4" s="5" t="str">
+      <x:c r="E4" s="4" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F4" s="2" t="n">
@@ -298,7 +285,7 @@
       <x:c r="D5" s="2" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="str">
+      <x:c r="E5" s="5" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F5" s="2" t="n">
@@ -318,7 +305,7 @@
       <x:c r="D6" s="2" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="E6" s="7" t="str">
+      <x:c r="E6" s="6" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F6" s="2" t="n">
@@ -338,7 +325,7 @@
       <x:c r="D7" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="str">
+      <x:c r="E7" s="7" t="str">
         <x:v>Hello World</x:v>
       </x:c>
       <x:c r="F7" s="2" t="n">
@@ -378,7 +365,7 @@
       <x:c r="D9" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E9" s="3" t="str">
+      <x:c r="E9" s="2" t="str">
         <x:v>Short</x:v>
       </x:c>
       <x:c r="F9" s="2" t="n">
@@ -398,7 +385,7 @@
       <x:c r="D10" s="2" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="E10" s="3" t="str">
+      <x:c r="E10" s="2" t="str">
         <x:v>This is a much longer text string</x:v>
       </x:c>
       <x:c r="F10" s="2" t="n">
@@ -431,7 +418,7 @@
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="A14" s="11" t="str">
+      <x:c r="A14" s="4" t="str">
         <x:v>Text to Measure:</x:v>
       </x:c>
       <x:c r="B14" s="2" t="str">
@@ -439,7 +426,7 @@
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="A15" s="11" t="str">
+      <x:c r="A15" s="4" t="str">
         <x:v>Estimated Width:</x:v>
       </x:c>
       <x:c r="B15" s="2" t="n">
@@ -447,7 +434,7 @@
       </x:c>
     </x:row>
     <x:row r="16">
-      <x:c r="A16" s="11" t="str">
+      <x:c r="A16" s="4" t="str">
         <x:v>Applied Width:</x:v>
       </x:c>
       <x:c r="B16" s="2" t="str">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/108_EnvironmentSheetInfo.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="R980758f796f44680"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Width Estimation" sheetId="1" r:id="Rd5bf6c20e50d455c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
